--- a/biology/Zoologie/Argiope_picta/Argiope_picta.xlsx
+++ b/biology/Zoologie/Argiope_picta/Argiope_picta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope picta est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope picta est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux Moluques et en Nouvelle-Guinée occidentale en Indonésie, en Papouasie-Nouvelle-Guinée, aux Salomon, au Vanuatu et au Queensland et au Territoire du Nord en Australie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux Moluques et en Nouvelle-Guinée occidentale en Indonésie, en Papouasie-Nouvelle-Guinée, aux Salomon, au Vanuatu et au Queensland et au Territoire du Nord en Australie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est similaire en taille à Argiope aetherea, elle s'en distingue pourtant, chez la femelle, par des dessins et colorations abdominaux[2]. Les mâles des deux espèces étant largement identiques. Le dimorphisme sexuel est notable, les mâles étant moins grands que les femelles.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est similaire en taille à Argiope aetherea, elle s'en distingue pourtant, chez la femelle, par des dessins et colorations abdominaux. Les mâles des deux espèces étant largement identiques. Le dimorphisme sexuel est notable, les mâles étant moins grands que les femelles.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L. Koch, 1871 : Die Arachniden Australiens, nach der Natur beschrieben und abgebildet. Nürnberg, vol. 1, p. 1-104 (texte intégral).</t>
         </is>
